--- a/biology/Virologie/Tymoviridae/Tymoviridae.xlsx
+++ b/biology/Virologie/Tymoviridae/Tymoviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tymoviridae sont une famille de virus de l'ordre des Tymovirales, qui infectent les plantes (phytovirus). Ce sont des virus à ARN à simple brin à polarité positive, à génome monopartite, classés dans le groupe IV de la classification Baltimore. 
 Les virions sont constitués par des capsides non-enveloppées à symétrie icosaédrale, d'un diamètre d'environ 30 nm.
@@ -512,14 +524,16 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Tymoviridae sont une famille relativement récente, approuvée seulement en 2002. Elle comprend trois genres :
 Tymovirus; espèce-type : Turnip yellow mosaic virus (virus de la mosaïque jaune du navet, TYMV)
 Marafivirus; espèce-type : Maize rayado fino virus
 Maculavirus; espèce-type : Grapevine fleck virus
 Le plus important des trois est le genre Tymovirus qui compte 25 espèces tandis que les deux autres,  Marafivirus et Maculavirus, ont respectivement cinq et une espèces.
-La famille compte en outre deux espèces non affectées à un genre[3] :
+La famille compte en outre deux espèces non affectées à un genre :
 Bombyx mori latent virus
 Poinsettia mosaic virus.</t>
         </is>
